--- a/team_specific_matrix/UIC_B.xlsx
+++ b/team_specific_matrix/UIC_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1721311475409836</v>
+        <v>0.1660899653979239</v>
       </c>
       <c r="C2">
-        <v>0.5778688524590164</v>
+        <v>0.5986159169550173</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02049180327868852</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.139344262295082</v>
+        <v>0.1314878892733564</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09016393442622951</v>
+        <v>0.08650519031141868</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01351351351351351</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="C3">
-        <v>0.03378378378378379</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7905405405405406</v>
+        <v>0.7955801104972375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1351351351351351</v>
+        <v>0.1325966850828729</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.025</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.725</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2765957446808511</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04761904761904762</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02380952380952381</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="E6">
-        <v>0.005952380952380952</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F6">
-        <v>0.06547619047619048</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.244047619047619</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0119047619047619</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1845238095238095</v>
+        <v>0.1893203883495146</v>
       </c>
       <c r="R6">
-        <v>0.04166666666666666</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3592233009708738</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1868131868131868</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03296703296703297</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="F7">
-        <v>0.0989010989010989</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08791208791208792</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03296703296703297</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1098901098901099</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="R7">
-        <v>0.03296703296703297</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="S7">
-        <v>0.4175824175824176</v>
+        <v>0.3821138211382114</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1180124223602484</v>
+        <v>0.109181141439206</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02795031055900621</v>
+        <v>0.02233250620347394</v>
       </c>
       <c r="E8">
-        <v>0.003105590062111801</v>
+        <v>0.002481389578163772</v>
       </c>
       <c r="F8">
-        <v>0.07142857142857142</v>
+        <v>0.07444168734491315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1055900621118012</v>
+        <v>0.1017369727047146</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0124223602484472</v>
+        <v>0.009925558312655087</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1708074534161491</v>
+        <v>0.173697270471464</v>
       </c>
       <c r="R8">
-        <v>0.08074534161490683</v>
+        <v>0.08188585607940446</v>
       </c>
       <c r="S8">
-        <v>0.4099378881987578</v>
+        <v>0.424317617866005</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1299435028248588</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03389830508474576</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05084745762711865</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1073446327683616</v>
+        <v>0.1032863849765258</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03389830508474576</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1638418079096045</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="R9">
-        <v>0.06214689265536723</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="S9">
-        <v>0.4180790960451977</v>
+        <v>0.4272300469483568</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1144329896907216</v>
+        <v>0.1096455070074196</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02061855670103093</v>
+        <v>0.02143446001648805</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05979381443298969</v>
+        <v>0.05935696619950536</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1185567010309278</v>
+        <v>0.1195383347073372</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02164948453608247</v>
+        <v>0.01813685078318219</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2082474226804124</v>
+        <v>0.2077493816982688</v>
       </c>
       <c r="R10">
-        <v>0.07216494845360824</v>
+        <v>0.07089859851607584</v>
       </c>
       <c r="S10">
-        <v>0.3845360824742268</v>
+        <v>0.393239901071723</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1392405063291139</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1075949367088608</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="K11">
-        <v>0.2088607594936709</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="L11">
-        <v>0.5316455696202531</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01265822784810127</v>
+        <v>0.01485148514851485</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6279069767441861</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2674418604651163</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K12">
-        <v>0.02325581395348837</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L12">
-        <v>0.03488372093023256</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04651162790697674</v>
+        <v>0.0603448275862069</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5806451612903226</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3548387096774194</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01948051948051948</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1233766233766234</v>
+        <v>0.1435897435897436</v>
       </c>
       <c r="I15">
-        <v>0.1038961038961039</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="J15">
-        <v>0.3441558441558442</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="K15">
-        <v>0.04545454545454546</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08441558441558442</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2792207792207792</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02325581395348837</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1686046511627907</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="I16">
-        <v>0.09883720930232558</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="J16">
-        <v>0.4302325581395349</v>
+        <v>0.4106280193236715</v>
       </c>
       <c r="K16">
-        <v>0.0872093023255814</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02906976744186046</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04651162790697674</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1162790697674419</v>
+        <v>0.1256038647342995</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01547987616099071</v>
+        <v>0.0170316301703163</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2136222910216718</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="I17">
-        <v>0.1238390092879257</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="J17">
-        <v>0.4427244582043344</v>
+        <v>0.4355231143552312</v>
       </c>
       <c r="K17">
-        <v>0.05263157894736842</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01547987616099071</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03405572755417956</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1021671826625387</v>
+        <v>0.09732360097323602</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02564102564102564</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2051282051282051</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I18">
-        <v>0.1196581196581197</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="J18">
-        <v>0.4615384615384616</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="K18">
-        <v>0.03418803418803419</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008547008547008548</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06837606837606838</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07692307692307693</v>
+        <v>0.08843537414965986</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01725997842502697</v>
+        <v>0.01815038893690579</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1952535059331176</v>
+        <v>0.1961970613656007</v>
       </c>
       <c r="I19">
-        <v>0.0970873786407767</v>
+        <v>0.09334485738980121</v>
       </c>
       <c r="J19">
-        <v>0.4163969795037756</v>
+        <v>0.4174589455488332</v>
       </c>
       <c r="K19">
-        <v>0.08522114347357065</v>
+        <v>0.08556611927398444</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0226537216828479</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N19">
-        <v>0.001078748651564185</v>
+        <v>0.000864304235090752</v>
       </c>
       <c r="O19">
-        <v>0.06903991370010787</v>
+        <v>0.07519446845289542</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09600862998921252</v>
+        <v>0.09075194468452895</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UIC_B.xlsx
+++ b/team_specific_matrix/UIC_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1660899653979239</v>
+        <v>0.1661442006269593</v>
       </c>
       <c r="C2">
-        <v>0.5986159169550173</v>
+        <v>0.6018808777429467</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01730103806228374</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314878892733564</v>
+        <v>0.1347962382445141</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08650519031141868</v>
+        <v>0.08150470219435736</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01104972375690608</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="C3">
-        <v>0.03314917127071823</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02762430939226519</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7955801104972375</v>
+        <v>0.7733990147783252</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1325966850828729</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7021276595744681</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2765957446808511</v>
+        <v>0.2407407407407407</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04854368932038835</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02427184466019417</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="E6">
-        <v>0.004854368932038835</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="F6">
-        <v>0.06310679611650485</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2524271844660194</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009708737864077669</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1893203883495146</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="R6">
-        <v>0.04854368932038835</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="S6">
-        <v>0.3592233009708738</v>
+        <v>0.3648648648648649</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1869918699186992</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02439024390243903</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E7">
-        <v>0.008130081300813009</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="F7">
-        <v>0.08943089430894309</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1138211382113821</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02439024390243903</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1300813008130081</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="R7">
-        <v>0.04065040650406504</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="S7">
-        <v>0.3821138211382114</v>
+        <v>0.4014084507042254</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.109181141439206</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02233250620347394</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E8">
-        <v>0.002481389578163772</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="F8">
-        <v>0.07444168734491315</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1017369727047146</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009925558312655087</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.173697270471464</v>
+        <v>0.1790697674418605</v>
       </c>
       <c r="R8">
-        <v>0.08188585607940446</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="S8">
-        <v>0.424317617866005</v>
+        <v>0.4209302325581395</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1173708920187793</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02816901408450704</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04694835680751173</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1032863849765258</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02816901408450704</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1830985915492958</v>
+        <v>0.1991701244813278</v>
       </c>
       <c r="R9">
-        <v>0.06572769953051644</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="S9">
-        <v>0.4272300469483568</v>
+        <v>0.4107883817427386</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1096455070074196</v>
+        <v>0.1125377643504532</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02143446001648805</v>
+        <v>0.02265861027190332</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05935696619950536</v>
+        <v>0.05891238670694864</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1195383347073372</v>
+        <v>0.1193353474320242</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01813685078318219</v>
+        <v>0.01661631419939577</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2077493816982688</v>
+        <v>0.2046827794561933</v>
       </c>
       <c r="R10">
-        <v>0.07089859851607584</v>
+        <v>0.07401812688821752</v>
       </c>
       <c r="S10">
-        <v>0.393239901071723</v>
+        <v>0.3912386706948641</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1386138613861386</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09405940594059406</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="K11">
-        <v>0.198019801980198</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="L11">
-        <v>0.5544554455445545</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01485148514851485</v>
+        <v>0.0131578947368421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.646551724137931</v>
+        <v>0.6766917293233082</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2413793103448276</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="K12">
-        <v>0.01724137931034483</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="L12">
-        <v>0.03448275862068965</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0603448275862069</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3157894736842105</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01538461538461539</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1435897435897436</v>
+        <v>0.1400966183574879</v>
       </c>
       <c r="I15">
-        <v>0.09743589743589744</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="J15">
-        <v>0.3692307692307693</v>
+        <v>0.3719806763285024</v>
       </c>
       <c r="K15">
-        <v>0.03589743589743589</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005128205128205128</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07692307692307693</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2564102564102564</v>
+        <v>0.251207729468599</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02415458937198068</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1835748792270532</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="I16">
-        <v>0.0821256038647343</v>
+        <v>0.09051724137931035</v>
       </c>
       <c r="J16">
-        <v>0.4106280193236715</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K16">
-        <v>0.09178743961352658</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02898550724637681</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05314009661835749</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1256038647342995</v>
+        <v>0.1163793103448276</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0170316301703163</v>
+        <v>0.01552106430155211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2043795620437956</v>
+        <v>0.2039911308203991</v>
       </c>
       <c r="I17">
-        <v>0.1289537712895377</v>
+        <v>0.1352549889135255</v>
       </c>
       <c r="J17">
-        <v>0.4355231143552312</v>
+        <v>0.4301552106430155</v>
       </c>
       <c r="K17">
-        <v>0.06569343065693431</v>
+        <v>0.06651884700665188</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0145985401459854</v>
+        <v>0.01330376940133038</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0364963503649635</v>
+        <v>0.03547671840354767</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09732360097323602</v>
+        <v>0.09977827050997783</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02040816326530612</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1904761904761905</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="I18">
-        <v>0.1156462585034014</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J18">
-        <v>0.4693877551020408</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K18">
-        <v>0.04761904761904762</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006802721088435374</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06122448979591837</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08843537414965986</v>
+        <v>0.08484848484848485</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01815038893690579</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1961970613656007</v>
+        <v>0.1907422186751796</v>
       </c>
       <c r="I19">
-        <v>0.09334485738980121</v>
+        <v>0.09577015163607343</v>
       </c>
       <c r="J19">
-        <v>0.4174589455488332</v>
+        <v>0.4221867517956903</v>
       </c>
       <c r="K19">
-        <v>0.08556611927398444</v>
+        <v>0.08699122106943336</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02247191011235955</v>
+        <v>0.02154828411811652</v>
       </c>
       <c r="N19">
-        <v>0.000864304235090752</v>
+        <v>0.0007980845969672786</v>
       </c>
       <c r="O19">
-        <v>0.07519446845289542</v>
+        <v>0.0742218675179569</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09075194468452895</v>
+        <v>0.09098164405426976</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UIC_B.xlsx
+++ b/team_specific_matrix/UIC_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1661442006269593</v>
+        <v>0.1691842900302115</v>
       </c>
       <c r="C2">
-        <v>0.6018808777429467</v>
+        <v>0.595166163141994</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01567398119122257</v>
+        <v>0.02114803625377644</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1347962382445141</v>
+        <v>0.1359516616314199</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08150470219435736</v>
+        <v>0.07854984894259819</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01477832512315271</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="C3">
-        <v>0.04433497536945813</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02955665024630542</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7733990147783252</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1379310344827586</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04954954954954955</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02252252252252252</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="E6">
-        <v>0.004504504504504504</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="F6">
-        <v>0.05855855855855856</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2522522522522522</v>
+        <v>0.2554112554112554</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009009009009009009</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1891891891891892</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R6">
-        <v>0.04954954954954955</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="S6">
-        <v>0.3648648648648649</v>
+        <v>0.3593073593073593</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1690140845070423</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02112676056338028</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="E7">
-        <v>0.007042253521126761</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="F7">
-        <v>0.09859154929577464</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1056338028169014</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02816901408450704</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1267605633802817</v>
+        <v>0.1283783783783784</v>
       </c>
       <c r="R7">
-        <v>0.04225352112676056</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="S7">
-        <v>0.4014084507042254</v>
+        <v>0.3986486486486486</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1116279069767442</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02325581395348837</v>
+        <v>0.02267573696145125</v>
       </c>
       <c r="E8">
-        <v>0.002325581395348837</v>
+        <v>0.002267573696145125</v>
       </c>
       <c r="F8">
-        <v>0.07441860465116279</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09767441860465116</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01162790697674419</v>
+        <v>0.01133786848072562</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1790697674418605</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="R8">
-        <v>0.07906976744186046</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S8">
-        <v>0.4209302325581395</v>
+        <v>0.4217687074829932</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1120331950207469</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03319502074688797</v>
+        <v>0.0321285140562249</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04564315352697095</v>
+        <v>0.04417670682730924</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1037344398340249</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02489626556016597</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1991701244813278</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="R9">
-        <v>0.07053941908713693</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="S9">
-        <v>0.4107883817427386</v>
+        <v>0.4056224899598393</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1125377643504532</v>
+        <v>0.1104693140794224</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02265861027190332</v>
+        <v>0.02166064981949458</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05891238670694864</v>
+        <v>0.05848375451263538</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1193353474320242</v>
+        <v>0.1220216606498195</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01661631419939577</v>
+        <v>0.01732851985559567</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2046827794561933</v>
+        <v>0.207942238267148</v>
       </c>
       <c r="R10">
-        <v>0.07401812688821752</v>
+        <v>0.07148014440433213</v>
       </c>
       <c r="S10">
-        <v>0.3912386706948641</v>
+        <v>0.3906137184115523</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.131578947368421</v>
+        <v>0.1338912133891213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1008771929824561</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="K11">
-        <v>0.1929824561403509</v>
+        <v>0.196652719665272</v>
       </c>
       <c r="L11">
-        <v>0.5614035087719298</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0131578947368421</v>
+        <v>0.01255230125523013</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6766917293233082</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2180451127819549</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K12">
-        <v>0.01503759398496241</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L12">
-        <v>0.03759398496240601</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05263157894736842</v>
+        <v>0.05072463768115942</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01449275362318841</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1400966183574879</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="I15">
-        <v>0.0966183574879227</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="J15">
-        <v>0.3719806763285024</v>
+        <v>0.3726415094339622</v>
       </c>
       <c r="K15">
-        <v>0.04830917874396135</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004830917874396135</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07246376811594203</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.251207729468599</v>
+        <v>0.2547169811320755</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02586206896551724</v>
+        <v>0.02928870292887029</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1767241379310345</v>
+        <v>0.1715481171548117</v>
       </c>
       <c r="I16">
-        <v>0.09051724137931035</v>
+        <v>0.08786610878661087</v>
       </c>
       <c r="J16">
-        <v>0.4137931034482759</v>
+        <v>0.4267782426778243</v>
       </c>
       <c r="K16">
-        <v>0.09913793103448276</v>
+        <v>0.09623430962343096</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02586206896551724</v>
+        <v>0.02510460251046025</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05172413793103448</v>
+        <v>0.0502092050209205</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1163793103448276</v>
+        <v>0.1129707112970711</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01552106430155211</v>
+        <v>0.0148619957537155</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2039911308203991</v>
+        <v>0.1995753715498939</v>
       </c>
       <c r="I17">
-        <v>0.1352549889135255</v>
+        <v>0.1295116772823779</v>
       </c>
       <c r="J17">
-        <v>0.4301552106430155</v>
+        <v>0.4331210191082803</v>
       </c>
       <c r="K17">
-        <v>0.06651884700665188</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01330376940133038</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03547671840354767</v>
+        <v>0.03609341825902335</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09977827050997783</v>
+        <v>0.1040339702760085</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01818181818181818</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1878787878787879</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="I18">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0.4666666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K18">
-        <v>0.05454545454545454</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01212121212121212</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05454545454545454</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08484848484848485</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01675977653631285</v>
+        <v>0.01774691358024691</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1907422186751796</v>
+        <v>0.1898148148148148</v>
       </c>
       <c r="I19">
-        <v>0.09577015163607343</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="J19">
-        <v>0.4221867517956903</v>
+        <v>0.4212962962962963</v>
       </c>
       <c r="K19">
-        <v>0.08699122106943336</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02154828411811652</v>
+        <v>0.02160493827160494</v>
       </c>
       <c r="N19">
-        <v>0.0007980845969672786</v>
+        <v>0.0007716049382716049</v>
       </c>
       <c r="O19">
-        <v>0.0742218675179569</v>
+        <v>0.07253086419753087</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09098164405426976</v>
+        <v>0.08950617283950617</v>
       </c>
     </row>
   </sheetData>
